--- a/controllers/exports/subcategories.xlsx
+++ b/controllers/exports/subcategories.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,27 +485,107 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>67122012edc930ce3317ea8f</v>
+        <v>67139ea4c9907d0ec0ce54c7</v>
       </c>
       <c r="B5" t="str">
-        <v>Top Wear</v>
+        <v>New Fashions</v>
       </c>
       <c r="C5" t="str">
-        <v>Cloths</v>
+        <v>Fashion</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>45583.59394615741</v>
+        <v>45584.72748332176</v>
       </c>
       <c r="F5" s="1">
-        <v>45583.59394615741</v>
+        <v>45584.72748332176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>672a18601c261e0e7b03e778</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Healty</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45601.77558584491</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45601.77558584491</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>672a43c0004d25297f6a4908</v>
+      </c>
+      <c r="B7" t="str">
+        <v>banana</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Fruits</v>
+      </c>
+      <c r="D7" t="str">
+        <v>medium</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45601.904101238426</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45601.904101238426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>672a4435004d25297f6a4917</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Laptops</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="D8" t="str">
+        <v>low</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45601.90546107639</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45601.911041493055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>672a44ed004d25297f6a493e</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mobiles</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="D9" t="str">
+        <v>low</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45601.90758197917</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45601.955005497686</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>